--- a/medicine/Enfance/Les_dinosaures_n'ont_pas_de_nénés/Les_dinosaures_n'ont_pas_de_nénés.xlsx
+++ b/medicine/Enfance/Les_dinosaures_n'ont_pas_de_nénés/Les_dinosaures_n'ont_pas_de_nénés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_dinosaures_n%27ont_pas_de_n%C3%A9n%C3%A9s</t>
+          <t>Les_dinosaures_n'ont_pas_de_nénés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les dinosaures n'ont pas de nénés est un conte humoristique de littérature d'enfance et de jeunesse écrit par Henriette Bichonnier, illustré par Alexis Ferrier publié en 1991 aux éditions La Farandole.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_dinosaures_n%27ont_pas_de_n%C3%A9n%C3%A9s</t>
+          <t>Les_dinosaures_n'ont_pas_de_nénés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le thème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jour, alors que la terre était encore envahie par les dinosaures, surgit une petite bête grosse comme une souris. Et c'était justement une souris. Un mammifère, c'est-à-dire un animal ayant des nénés. Enfin c'est la définition donnée pour les mammifères dont le nom vient de mamelles, maman, etc. 
 Il semble que cette variété animale soit très agile, très habile et qu'elle sache jouer à beaucoup de jeux. Ces ploucs de dinosaures, trop gros et trop encombrants, sont incapables d'imiter ses pirouettes. Et c'est en voulant faire de la balançoire avec les branches qu'ils se cassent la figure et qu'ils meurent.
